--- a/uploads/Parts Requisition Form.xlsx
+++ b/uploads/Parts Requisition Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshk\PurdueApp\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA18F972-F9D1-46A8-8A31-C03168B1D1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465DC000-5B9E-45FD-82D8-FE7D378A3F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="11772" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER 2022" sheetId="1" r:id="rId1"/>
@@ -765,6 +765,21 @@
     <xf numFmtId="44" fontId="2" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -774,6 +789,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -791,72 +857,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1144,8 +1144,8 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1162,47 +1162,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
@@ -1239,11 +1239,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>40</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="F5" s="9">
         <f>D5*E5</f>
-        <v>80</v>
+        <v>80.040000000000006</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>33</v>
@@ -1625,23 +1625,23 @@
       <c r="H29" s="31"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="56"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="32" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="33">
         <f>SUM(F5:F29)</f>
-        <v>84</v>
-      </c>
-      <c r="G30" s="57" t="s">
+        <v>84.04</v>
+      </c>
+      <c r="G30" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="58"/>
+      <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
@@ -1655,224 +1655,235 @@
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="61"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="55"/>
     </row>
     <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="64"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="58"/>
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="42"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="64"/>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="42"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="41"/>
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="41"/>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="41"/>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="64"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="41"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="40"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="42"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="64"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="34"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="39"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="61"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:A29">
     <sortCondition ref="A5"/>
   </sortState>
   <mergeCells count="27">
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G2:H3"/>
     <mergeCell ref="B49:H49"/>
@@ -1889,17 +1900,6 @@
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1923,25 +1923,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f80067bb-328a-436d-a629-1652862af132">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100966CCCBAC488344D91F86CCD2EC92628" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="db746bfd5767a056bea93378f022c485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f80067bb-328a-436d-a629-1652862af132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af50dcd53b9d52b7aef1536bbdb0c371" ns2:_="">
     <xsd:import namespace="f80067bb-328a-436d-a629-1652862af132"/>
@@ -2119,25 +2100,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09DD68AC-8C3F-4C28-81C7-5D8E9C8DE772}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f80067bb-328a-436d-a629-1652862af132"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB8793CD-74EB-4844-8F9F-251BD191EC21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f80067bb-328a-436d-a629-1652862af132">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D09CE23-51E7-4772-921E-11ECFC285470}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2153,4 +2135,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB8793CD-74EB-4844-8F9F-251BD191EC21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09DD68AC-8C3F-4C28-81C7-5D8E9C8DE772}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f80067bb-328a-436d-a629-1652862af132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>